--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_257.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_257.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>isophonics_9</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_257</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1041176470588235</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['F#:min', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(25.8, 29.46), (14.62, 19.56)]</t>
+          <t>[['F#:min', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.3, 2.82), (16.3, 19.52)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:16.939480', '0:00:19.795536')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:12.405827', '0:00:17.850907')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_35</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_70</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08541458541458541</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Bb:7', 'C:min7', 'F:7'], ['C:min7', 'F:7', 'Bb:7', 'Bb:7']]</t>
-        </is>
+          <t>isophonics_76</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1785714285714286</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Db:7', 'Db:7/3', 'Gb:maj6', 'Ab:7'], ['Eb:min7', 'Ab:7', 'Db:7', 'Db:7/3']]</t>
+          <t>[['C', 'G', 'D/3']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(28.83, 40.35), (34.55, 46.19)]</t>
+          <t>[['A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(54.36, 56.57), (53.25, 55.47)]</t>
+          <t>[('0:00:09.336000', '0:00:13.342000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:7JXfQmzQwnGvbAVnV9ODpn</t>
+          <t>[('0:00:11.459070', '0:00:20.410362')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_67</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1117241379310345</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Ab/7', 'F:min', 'Db:maj']]</t>
-        </is>
+          <t>jaah_55</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_0</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1619644723092999</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C', 'A:min', 'F']]</t>
+          <t>[['C', 'C', 'C', 'C', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(57.388, 62.385)]</t>
+          <t>[['Ab', 'Ab', 'Ab', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(94.511587, 99.352947)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:48.530000', '0:00:52.390000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:26.640000', '0:01:33.250000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3314393939393939</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_49</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_30</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08333333333333334</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['G', 'G', 'G'], ['D', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[['Bb', 'Bb', 'Bb'], ['F', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.24, 9.28)]</t>
+          <t>[('0:00:20.940758', '0:00:23.936132'), ('0:00:03.142662', '0:00:09.133411')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:02.300000', '0:00:05.060000'), ('0:00:01.380000', '0:00:04.140000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2664473684210527</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>isophonics_42</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_191</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1066176470588235</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>[['F:min', 'Eb/3', 'Ab']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58)]</t>
+          <t>[['Ab:min', 'Gb', 'B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(10.634761, 15.986961)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:03.065000', '0:00:05.875000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:02.908866', '0:00:07.459977')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(19.4, 44.18)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(11.74, 19.74)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:07.100000', '0:00:18.300000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1441647597254004</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(106.71, 112.53)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(32.486, 37.053)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:02.580000', '0:00:16.360000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:55.840000', '0:01:05.040000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1678571428571429</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B', 'E/5', 'B'], ['B', 'B', 'E/5']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_196</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4033018867924528</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3'], ['G/3', 'G', 'C']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(58.625147, 64.604285), (55.629773, 63.091379)]</t>
+          <t>[['D', 'G/5', 'D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(22.020589, 24.598004), (5.894331, 9.748843)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:19.708503', '0:00:25.501882')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1182352941176471</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'C']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(103.35, 106.64)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.826054, 11.465419)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:00.400000', '0:00:09.040000'), ('0:00:55.180000', '0:01:02.060000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G', 'C/5', 'G']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4504385964912281</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(59.182426, 68.064058)]</t>
+          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(127.6, 133.76)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:08.853900', '0:02:18.002562')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:23.182222', '0:02:53.495873')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(152.44, 157.16)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(160.02, 164.86)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2863636363636364</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(16.24, 18.88)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307)]</t>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1160714285714286</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G'], ['A', 'D', 'D/5'], ['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Ab:maj'], ['F:maj', 'Bb:maj', 'Bb:maj'], ['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.440395, 9.431879), (13.657911, 17.965212), (1.014823, 12.241493)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(237.731, 240.233), (45.697, 59.327), (38.041, 42.375)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.4857142857142857</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'B:7']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(100.569342, 113.665396)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(58.4, 60.92)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(94.925, 100.821)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(15.027029, 21.737596)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(64.08, 70.34)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(254.26, 257.98)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
